--- a/Departments/BISC.xlsx
+++ b/Departments/BISC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148F3E09-A8D3-40B1-B25D-5757D2D59DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADD857-B6B5-4D46-9ABA-9AC1A3D44DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD9F7BFE-C3CC-492C-B7B8-18D07FE5F56D}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{FD9F7BFE-C3CC-492C-B7B8-18D07FE5F56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1540,6 +1534,12 @@
   </si>
   <si>
     <t>REQ-BC Principles of Physics 12 or PHYS 100 or equivalent with a minimum grade of C-. COREQ-MATH 150 or 151 or 154 or 157; BISC 100 or 101 or 102. Students with credit for PHYS 120, 125 or 140 may not take PHYS 101 for further credit..</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I181"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,4876 +1913,4876 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
         <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
         <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
         <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
-      </c>
       <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
         <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
         <v>114</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>121</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>130</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
         <v>133</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>137</v>
-      </c>
-      <c r="E40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
         <v>146</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>147</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
         <v>148</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
         <v>151</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
         <v>212</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>213</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
         <v>214</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
         <v>215</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s">
-        <v>216</v>
-      </c>
-      <c r="I75" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" t="s">
         <v>218</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
         <v>219</v>
-      </c>
-      <c r="D76" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
         <v>218</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
         <v>219</v>
       </c>
-      <c r="D77" t="s">
+      <c r="I77" t="s">
         <v>220</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s">
-        <v>221</v>
-      </c>
-      <c r="I77" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" t="s">
         <v>263</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
         <v>219</v>
       </c>
-      <c r="D98" t="s">
+      <c r="I98" t="s">
         <v>264</v>
-      </c>
-      <c r="E98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" t="s">
-        <v>221</v>
-      </c>
-      <c r="I98" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" t="s">
         <v>267</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
         <v>219</v>
       </c>
-      <c r="D99" t="s">
+      <c r="I99" t="s">
         <v>268</v>
-      </c>
-      <c r="E99" t="s">
-        <v>269</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" t="s">
-        <v>221</v>
-      </c>
-      <c r="I99" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" t="s">
         <v>271</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>272</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
         <v>273</v>
-      </c>
-      <c r="F100" t="s">
-        <v>274</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" t="s">
+        <v>275</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>273</v>
+      </c>
+      <c r="I101" t="s">
         <v>276</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" t="s">
-        <v>277</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="s">
-        <v>275</v>
-      </c>
-      <c r="I101" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E102" t="s">
         <v>279</v>
       </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>271</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>273</v>
+      </c>
+      <c r="I102" t="s">
         <v>280</v>
-      </c>
-      <c r="E102" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" t="s">
-        <v>275</v>
-      </c>
-      <c r="I102" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" t="s">
         <v>283</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
         <v>284</v>
       </c>
-      <c r="D103" t="s">
+      <c r="I103" t="s">
         <v>285</v>
-      </c>
-      <c r="E103" t="s">
-        <v>218</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" t="s">
-        <v>286</v>
-      </c>
-      <c r="I103" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>286</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s">
         <v>288</v>
       </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>287</v>
+      </c>
+      <c r="H104" t="s">
         <v>289</v>
-      </c>
-      <c r="D104" t="s">
-        <v>290</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H104" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105" t="s">
         <v>292</v>
       </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>293</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
         <v>294</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>295</v>
       </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>296</v>
-      </c>
-      <c r="H105" t="s">
-        <v>297</v>
-      </c>
-      <c r="I105" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>302</v>
+      </c>
+      <c r="E108" t="s">
         <v>303</v>
       </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" t="s">
-        <v>305</v>
-      </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" t="s">
         <v>306</v>
       </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" t="s">
-        <v>308</v>
-      </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" t="s">
+        <v>306</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" t="s">
         <v>312</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" t="s">
-        <v>313</v>
-      </c>
-      <c r="E112" t="s">
-        <v>308</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
-      <c r="H112" t="s">
-        <v>22</v>
-      </c>
-      <c r="I112" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113" t="s">
         <v>315</v>
       </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
         <v>316</v>
-      </c>
-      <c r="E113" t="s">
-        <v>317</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I113" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" t="s">
         <v>319</v>
       </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s">
         <v>320</v>
-      </c>
-      <c r="E114" t="s">
-        <v>321</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
-      <c r="H114" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" t="s">
         <v>323</v>
       </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
         <v>324</v>
-      </c>
-      <c r="E115" t="s">
-        <v>325</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116" t="s">
         <v>327</v>
       </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
         <v>328</v>
-      </c>
-      <c r="E116" t="s">
-        <v>329</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
-      <c r="H116" t="s">
-        <v>22</v>
-      </c>
-      <c r="I116" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>329</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" t="s">
         <v>331</v>
       </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s">
         <v>332</v>
-      </c>
-      <c r="E117" t="s">
-        <v>333</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>336</v>
+      </c>
+      <c r="E119" t="s">
         <v>337</v>
       </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" t="s">
-        <v>338</v>
-      </c>
-      <c r="E119" t="s">
-        <v>339</v>
-      </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E120" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>341</v>
+      </c>
+      <c r="E121" t="s">
         <v>342</v>
       </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
         <v>343</v>
-      </c>
-      <c r="E121" t="s">
-        <v>344</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s">
-        <v>22</v>
-      </c>
-      <c r="I121" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>344</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" t="s">
         <v>346</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
         <v>347</v>
-      </c>
-      <c r="E122" t="s">
-        <v>348</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" t="s">
-        <v>22</v>
-      </c>
-      <c r="I122" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>348</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E123" t="s">
         <v>350</v>
       </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s">
         <v>351</v>
-      </c>
-      <c r="E123" t="s">
-        <v>352</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>352</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" t="s">
         <v>354</v>
       </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
         <v>355</v>
-      </c>
-      <c r="E124" t="s">
-        <v>356</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" t="s">
-        <v>22</v>
-      </c>
-      <c r="I124" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E126" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>360</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" t="s">
         <v>362</v>
       </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" t="s">
         <v>363</v>
-      </c>
-      <c r="E127" t="s">
-        <v>364</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E128" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>372</v>
+      </c>
+      <c r="E132" t="s">
         <v>373</v>
       </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>374</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
         <v>375</v>
-      </c>
-      <c r="F132" t="s">
-        <v>376</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s">
-        <v>22</v>
-      </c>
-      <c r="I132" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>376</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" t="s">
+        <v>373</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" t="s">
         <v>378</v>
-      </c>
-      <c r="B133" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" t="s">
-        <v>375</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" t="s">
-        <v>22</v>
-      </c>
-      <c r="I133" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>379</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
         <v>381</v>
-      </c>
-      <c r="B134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" t="s">
-        <v>382</v>
-      </c>
-      <c r="E134" t="s">
-        <v>47</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" t="s">
-        <v>22</v>
-      </c>
-      <c r="I134" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>418</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>419</v>
+      </c>
+      <c r="D153" t="s">
         <v>420</v>
       </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" t="s">
         <v>421</v>
-      </c>
-      <c r="D153" t="s">
-        <v>422</v>
-      </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>422</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>419</v>
+      </c>
+      <c r="D154" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" t="s">
         <v>424</v>
       </c>
-      <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
         <v>421</v>
       </c>
-      <c r="D154" t="s">
+      <c r="I154" t="s">
         <v>425</v>
-      </c>
-      <c r="E154" t="s">
-        <v>426</v>
-      </c>
-      <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
-      <c r="H154" t="s">
-        <v>423</v>
-      </c>
-      <c r="I154" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" t="s">
+        <v>427</v>
+      </c>
+      <c r="E155" t="s">
         <v>428</v>
       </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" t="s">
-        <v>213</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>429</v>
       </c>
-      <c r="E155" t="s">
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>214</v>
+      </c>
+      <c r="I155" t="s">
         <v>430</v>
-      </c>
-      <c r="F155" t="s">
-        <v>431</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
-      <c r="H155" t="s">
-        <v>216</v>
-      </c>
-      <c r="I155" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>217</v>
+      </c>
+      <c r="D156" t="s">
+        <v>432</v>
+      </c>
+      <c r="E156" t="s">
+        <v>263</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156" t="s">
+        <v>219</v>
+      </c>
+      <c r="I156" t="s">
         <v>433</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>219</v>
-      </c>
-      <c r="D156" t="s">
-        <v>434</v>
-      </c>
-      <c r="E156" t="s">
-        <v>265</v>
-      </c>
-      <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" t="s">
-        <v>221</v>
-      </c>
-      <c r="I156" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>434</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>217</v>
+      </c>
+      <c r="D157" t="s">
+        <v>435</v>
+      </c>
+      <c r="E157" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" t="s">
+        <v>219</v>
+      </c>
+      <c r="I157" t="s">
         <v>436</v>
-      </c>
-      <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="s">
-        <v>219</v>
-      </c>
-      <c r="D157" t="s">
-        <v>437</v>
-      </c>
-      <c r="E157" t="s">
-        <v>265</v>
-      </c>
-      <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" t="s">
-        <v>221</v>
-      </c>
-      <c r="I157" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>437</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>217</v>
+      </c>
+      <c r="D158" t="s">
+        <v>438</v>
+      </c>
+      <c r="E158" t="s">
         <v>439</v>
       </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" t="s">
         <v>219</v>
       </c>
-      <c r="D158" t="s">
+      <c r="I158" t="s">
         <v>440</v>
-      </c>
-      <c r="E158" t="s">
-        <v>441</v>
-      </c>
-      <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" t="s">
-        <v>221</v>
-      </c>
-      <c r="I158" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>441</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>442</v>
+      </c>
+      <c r="E159" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
         <v>443</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" t="s">
-        <v>444</v>
-      </c>
-      <c r="E159" t="s">
-        <v>31</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" t="s">
-        <v>22</v>
-      </c>
-      <c r="I159" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>444</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>445</v>
+      </c>
+      <c r="E160" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" t="s">
         <v>446</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" t="s">
-        <v>447</v>
-      </c>
-      <c r="E160" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
-      <c r="H160" t="s">
-        <v>22</v>
-      </c>
-      <c r="I160" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E161" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D163" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>453</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>419</v>
+      </c>
+      <c r="D164" t="s">
+        <v>454</v>
+      </c>
+      <c r="E164" t="s">
         <v>455</v>
       </c>
-      <c r="B164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="F164" t="s">
+        <v>456</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
         <v>421</v>
       </c>
-      <c r="D164" t="s">
-        <v>456</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="I164" t="s">
         <v>457</v>
-      </c>
-      <c r="F164" t="s">
-        <v>458</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
-      <c r="H164" t="s">
-        <v>423</v>
-      </c>
-      <c r="I164" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>488</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>269</v>
+      </c>
+      <c r="D180" t="s">
+        <v>489</v>
+      </c>
+      <c r="E180" t="s">
         <v>490</v>
       </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" t="s">
-        <v>271</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
+        <v>490</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" t="s">
+        <v>273</v>
+      </c>
+      <c r="I180" t="s">
         <v>491</v>
-      </c>
-      <c r="E180" t="s">
-        <v>492</v>
-      </c>
-      <c r="F180" t="s">
-        <v>492</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
-      <c r="H180" t="s">
-        <v>275</v>
-      </c>
-      <c r="I180" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>492</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>493</v>
+      </c>
+      <c r="D181" t="s">
         <v>494</v>
       </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>495</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
         <v>496</v>
       </c>
-      <c r="E181" t="s">
+      <c r="G181" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" t="s">
         <v>497</v>
       </c>
-      <c r="F181" t="s">
+      <c r="I181" t="s">
         <v>498</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
-      <c r="H181" t="s">
-        <v>499</v>
-      </c>
-      <c r="I181" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/BISC.xlsx
+++ b/Departments/BISC.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADD857-B6B5-4D46-9ABA-9AC1A3D44DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBD86F-3BDB-4650-BA98-318168AC16C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{FD9F7BFE-C3CC-492C-B7B8-18D07FE5F56D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD9F7BFE-C3CC-492C-B7B8-18D07FE5F56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="487">
   <si>
     <t>Course_Code</t>
   </si>
@@ -543,12 +546,6 @@
     <t>BISC 657 - Co-op I</t>
   </si>
   <si>
-    <t>BISC658</t>
-  </si>
-  <si>
-    <t>BISC 658 - Co-op II</t>
-  </si>
-  <si>
     <t>BISC800</t>
   </si>
   <si>
@@ -561,12 +558,6 @@
     <t>BISC 806 - Evolutionary Theory</t>
   </si>
   <si>
-    <t>BISC807</t>
-  </si>
-  <si>
-    <t>BISC 807 - Ecological and Evolutionary Physiology</t>
-  </si>
-  <si>
     <t>BISC830</t>
   </si>
   <si>
@@ -585,12 +576,6 @@
     <t>BISC 832 - Research Seminars in Biological Sciences</t>
   </si>
   <si>
-    <t>BISC834</t>
-  </si>
-  <si>
-    <t>BISC 834 - Essential Cell Biology</t>
-  </si>
-  <si>
     <t>BISC844</t>
   </si>
   <si>
@@ -603,12 +588,6 @@
     <t>BISC 847 - Pest Management in Practice</t>
   </si>
   <si>
-    <t>BISC854</t>
-  </si>
-  <si>
-    <t>BISC 854 - Ecotoxicology</t>
-  </si>
-  <si>
     <t>BISC855</t>
   </si>
   <si>
@@ -831,18 +810,12 @@
     <t>FANX99,MATH100,MATHX12</t>
   </si>
   <si>
-    <t>REQ-Pre-Calculus 12 (or equiv) with a grade of at least A, or MATH 100 grade of at least B, or satisfactory grade on the SFU Calculus Readiness Test. Students with credit for either MATH 150,154 or 157 may not take MATH 151 for further credit.</t>
-  </si>
-  <si>
     <t>MATH152</t>
   </si>
   <si>
     <t>MATH 152 - Calculus II</t>
   </si>
   <si>
-    <t>FANX99,MATH150,MATH151,MATH154,MATH155,MATH157</t>
-  </si>
-  <si>
     <t>REQ-MATH 150 or 151 or 155, with a minimum grade of C-; or MATH 154 or 157, with a grade of at least B. Students with credit for MATH 158 or 251 may not take this course for further credit. Quantitative.</t>
   </si>
   <si>
@@ -852,9 +825,6 @@
     <t>MBB 231 - Cellular Biology and Biochemistry</t>
   </si>
   <si>
-    <t>BISC101,CHEM281,CHEM282,CHEM283,MBB222</t>
-  </si>
-  <si>
     <t>CHEM282,CHEM283</t>
   </si>
   <si>
@@ -1020,12 +990,6 @@
     <t>BISC 407 - Population Dynamics</t>
   </si>
   <si>
-    <t>BISC102,BISC204,GEOG215,MATH154</t>
-  </si>
-  <si>
-    <t>REQ-BISC 102, (BISC 204 or GEOG 215), and MATH 154, all with a minimum grade of C-</t>
-  </si>
-  <si>
     <t>BISC410</t>
   </si>
   <si>
@@ -1203,12 +1167,6 @@
     <t>BISC 805 - Teaching and Learning in Undergraduate Sciences</t>
   </si>
   <si>
-    <t>BISC820</t>
-  </si>
-  <si>
-    <t>BISC 820 - Molecular Mechanisms of Microbial Pathogenesis</t>
-  </si>
-  <si>
     <t>BISC824</t>
   </si>
   <si>
@@ -1233,24 +1191,12 @@
     <t>BISC 838 - Population Dynamics and Demography</t>
   </si>
   <si>
-    <t>BISC841</t>
-  </si>
-  <si>
-    <t>BISC 841 - Plant diseases and plant biotechnology</t>
-  </si>
-  <si>
     <t>BISC849</t>
   </si>
   <si>
     <t>BISC 849 - Master of Pest Management Thesis</t>
   </si>
   <si>
-    <t>BISC852</t>
-  </si>
-  <si>
-    <t>BISC 852 - Ecological and Molecular Interactions between Insect Vectors and Parasites</t>
-  </si>
-  <si>
     <t>BISC869</t>
   </si>
   <si>
@@ -1338,18 +1284,12 @@
     <t>MATH 150 - Calculus I with Review</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or eqv.) with at least B+, or MATH100 with at least B-, or achieving satisfactory grade on SFU Calculus Readiness Test. Students with credit for either MATH151,154 or 157 may not take MATH150 for further credit. Quantitative.</t>
-  </si>
-  <si>
     <t>MATH154</t>
   </si>
   <si>
     <t>MATH 154 - Mathematics for the Life Sciences I</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or equiv.) with at least B, or MATH 100 with at least C-, or achieving a satis. grade on the SFU Calculus Readiness Test. Students with cred. for MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative</t>
-  </si>
-  <si>
     <t>MATH155</t>
   </si>
   <si>
@@ -1540,6 +1480,27 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>BISC102,BISC204,FANX99,GEOG215,MATH154</t>
+  </si>
+  <si>
+    <t>REQ-BISC 102, (BISC 204 or GEOG 215), and MATH 154, all with a minimum grade of C-.  Quantitative</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B+, or MATH 100 with a grade of at least B-.  Students with credit for either MATH 151, 154 or 157 may not take MATH 150 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ- Pre-Calculus 12 (or equivalent) with a grade of at least A, or MATH 100 with a grade of at least B.  Students with credit for either MATH 150, 154 or 157 may not take MATH 151 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>FANX99,MATH100,MATH110,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C-, or MATH 110 with a grade of at least C-. Students with credit for either MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>BISC101,CHEM281,MBB222</t>
   </si>
 </sst>
 </file>
@@ -1891,13 +1852,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2764BB3-FD8D-4A3A-AC43-6A2E8F6FA071}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="6" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1913,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1930,31 +1895,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1985,7 +1950,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1994,10 +1959,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2007,11 +1972,14 @@
       </c>
       <c r="H4" t="s">
         <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2020,10 +1988,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -2033,11 +2001,14 @@
       </c>
       <c r="H5" t="s">
         <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2046,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2063,7 +2034,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2072,10 +2043,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2085,14 +2056,11 @@
       </c>
       <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2101,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2118,7 +2086,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2127,10 +2095,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2140,14 +2108,11 @@
       </c>
       <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2156,24 +2121,27 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2182,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2195,11 +2163,14 @@
       </c>
       <c r="H11" t="s">
         <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2208,10 +2179,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2221,14 +2192,11 @@
       </c>
       <c r="H12" t="s">
         <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2237,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2252,12 +2220,12 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2266,10 +2234,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2281,12 +2249,12 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2295,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2312,7 +2280,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2321,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2334,14 +2302,11 @@
       </c>
       <c r="H16" t="s">
         <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2350,10 +2315,10 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -2365,12 +2330,12 @@
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2379,10 +2344,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -2394,12 +2359,12 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2408,10 +2373,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -2421,37 +2386,40 @@
       </c>
       <c r="H19" t="s">
         <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>426</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2460,10 +2428,10 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -2473,14 +2441,11 @@
       </c>
       <c r="H21" t="s">
         <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2489,10 +2454,10 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -2502,14 +2467,11 @@
       </c>
       <c r="H22" t="s">
         <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2518,10 +2480,10 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -2531,14 +2493,11 @@
       </c>
       <c r="H23" t="s">
         <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2547,10 +2506,10 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -2560,11 +2519,14 @@
       </c>
       <c r="H24" t="s">
         <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2573,53 +2535,50 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2628,10 +2587,10 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -2641,14 +2600,11 @@
       </c>
       <c r="H27" t="s">
         <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2657,10 +2613,10 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2670,11 +2626,14 @@
       </c>
       <c r="H28" t="s">
         <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2683,10 +2642,10 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -2698,12 +2657,12 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2712,10 +2671,10 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2725,14 +2684,11 @@
       </c>
       <c r="H30" t="s">
         <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2741,10 +2697,10 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -2754,14 +2710,11 @@
       </c>
       <c r="H31" t="s">
         <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2770,10 +2723,10 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -2783,14 +2736,11 @@
       </c>
       <c r="H32" t="s">
         <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2799,10 +2749,10 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2814,12 +2764,12 @@
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2828,10 +2778,10 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -2843,12 +2793,12 @@
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2857,10 +2807,10 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2870,11 +2820,14 @@
       </c>
       <c r="H35" t="s">
         <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2883,10 +2836,10 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2896,14 +2849,11 @@
       </c>
       <c r="H36" t="s">
         <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2912,10 +2862,10 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2927,12 +2877,12 @@
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2941,10 +2891,10 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2954,14 +2904,11 @@
       </c>
       <c r="H38" t="s">
         <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2970,10 +2917,10 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2985,12 +2932,12 @@
         <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2999,10 +2946,10 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -3014,12 +2961,12 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -3028,10 +2975,10 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -3041,11 +2988,14 @@
       </c>
       <c r="H41" t="s">
         <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -3054,10 +3004,10 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -3067,11 +3017,14 @@
       </c>
       <c r="H42" t="s">
         <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -3080,10 +3033,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -3093,11 +3046,14 @@
       </c>
       <c r="H43" t="s">
         <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -3106,13 +3062,13 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -3121,12 +3077,12 @@
         <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -3135,10 +3091,10 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -3148,11 +3104,14 @@
       </c>
       <c r="H45" t="s">
         <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -3161,10 +3120,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -3178,7 +3137,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -3187,10 +3146,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -3204,7 +3163,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -3213,10 +3172,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -3228,9 +3187,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -3239,10 +3198,10 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -3253,10 +3212,13 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3265,10 +3227,10 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -3279,10 +3241,13 @@
       <c r="H50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3291,10 +3256,10 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -3305,10 +3270,13 @@
       <c r="H51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3317,10 +3285,10 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3331,10 +3299,13 @@
       <c r="H52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -3343,10 +3314,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3358,9 +3329,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3369,10 +3340,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -3383,10 +3354,13 @@
       <c r="H54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3395,10 +3369,10 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -3409,10 +3383,13 @@
       <c r="H55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3421,10 +3398,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -3435,10 +3412,13 @@
       <c r="H56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -3447,10 +3427,10 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -3461,10 +3441,13 @@
       <c r="H57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -3473,10 +3456,10 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -3487,10 +3470,13 @@
       <c r="H58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -3499,10 +3485,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -3513,10 +3499,13 @@
       <c r="H59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3525,10 +3514,10 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -3539,10 +3528,13 @@
       <c r="H60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3551,10 +3543,10 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -3566,9 +3558,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -3577,10 +3569,10 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -3591,10 +3583,13 @@
       <c r="H62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -3603,10 +3598,10 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -3617,10 +3612,13 @@
       <c r="H63" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3629,10 +3627,10 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -3642,11 +3640,14 @@
       </c>
       <c r="H64" t="s">
         <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3655,10 +3656,10 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -3672,7 +3673,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3681,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3698,7 +3699,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3707,7 +3708,7 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3724,7 +3725,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3733,7 +3734,7 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3759,7 +3760,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3776,7 +3777,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3785,7 +3786,7 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3811,10 +3812,10 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -3828,7 +3829,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3837,24 +3838,27 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3863,24 +3867,27 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>359</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3889,10 +3896,10 @@
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -3902,23 +3909,26 @@
       </c>
       <c r="H74" t="s">
         <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -3927,27 +3937,24 @@
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>214</v>
-      </c>
-      <c r="I75" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -3956,21 +3963,21 @@
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3982,15 +3989,12 @@
         <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3999,7 +4003,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -4016,7 +4020,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -4025,10 +4029,10 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -4038,11 +4042,14 @@
       </c>
       <c r="H79" t="s">
         <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4051,7 +4058,7 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>370</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -4068,7 +4075,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -4077,7 +4084,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -4094,7 +4101,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -4103,7 +4110,7 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -4120,7 +4127,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -4129,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -4146,7 +4153,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4155,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -4172,7 +4179,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -4181,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -4198,7 +4205,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4207,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -4224,7 +4231,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -4233,7 +4240,7 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -4250,7 +4257,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4259,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -4276,7 +4283,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -4285,7 +4292,7 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4302,7 +4309,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4311,7 +4318,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -4328,7 +4335,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4337,7 +4344,7 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -4354,7 +4361,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -4363,7 +4370,7 @@
         <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -4380,7 +4387,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -4389,7 +4396,7 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4406,7 +4413,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -4415,7 +4422,7 @@
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -4432,7 +4439,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -4441,7 +4448,7 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4458,7 +4465,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -4467,7 +4474,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>258</v>
+        <v>382</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4482,9 +4489,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -4493,7 +4500,7 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -4508,731 +4515,686 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>385</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>388</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>389</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>390</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>392</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>393</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>394</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>396</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>437</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>438</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>439</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>440</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>442</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>444</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>217</v>
       </c>
-      <c r="D98" t="s">
-        <v>262</v>
-      </c>
-      <c r="E98" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>219</v>
       </c>
-      <c r="I98" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" t="s">
-        <v>266</v>
-      </c>
-      <c r="E99" t="s">
-        <v>267</v>
-      </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
-        <v>219</v>
-      </c>
-      <c r="I99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" t="s">
-        <v>270</v>
-      </c>
-      <c r="E100" t="s">
-        <v>271</v>
-      </c>
-      <c r="F100" t="s">
-        <v>272</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>274</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" t="s">
-        <v>275</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s">
-        <v>273</v>
-      </c>
-      <c r="I101" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>277</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102" t="s">
-        <v>279</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>273</v>
-      </c>
-      <c r="I102" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>281</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" t="s">
-        <v>283</v>
-      </c>
-      <c r="E103" t="s">
-        <v>216</v>
-      </c>
-      <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s">
-        <v>284</v>
-      </c>
-      <c r="I103" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>287</v>
-      </c>
-      <c r="D104" t="s">
-        <v>288</v>
-      </c>
-      <c r="E104" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>287</v>
-      </c>
-      <c r="H104" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>290</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>291</v>
-      </c>
-      <c r="D105" t="s">
-        <v>292</v>
-      </c>
-      <c r="E105" t="s">
-        <v>293</v>
-      </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>294</v>
-      </c>
-      <c r="H105" t="s">
-        <v>295</v>
-      </c>
-      <c r="I105" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>297</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" t="s">
-        <v>298</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>301</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" t="s">
-        <v>303</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>304</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" t="s">
-        <v>306</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>307</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>308</v>
-      </c>
-      <c r="E110" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>63</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>309</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>310</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>311</v>
-      </c>
-      <c r="E112" t="s">
-        <v>306</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>313</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" t="s">
-        <v>314</v>
-      </c>
-      <c r="E113" t="s">
-        <v>315</v>
-      </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>317</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" t="s">
-        <v>318</v>
-      </c>
-      <c r="E114" t="s">
-        <v>319</v>
-      </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>321</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" t="s">
-        <v>322</v>
-      </c>
-      <c r="E115" t="s">
-        <v>323</v>
-      </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>325</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" t="s">
-        <v>326</v>
-      </c>
-      <c r="E116" t="s">
-        <v>327</v>
-      </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>329</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>330</v>
-      </c>
-      <c r="E117" t="s">
-        <v>331</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>333</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" t="s">
-        <v>334</v>
-      </c>
-      <c r="E118" t="s">
-        <v>31</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" t="s">
-        <v>336</v>
-      </c>
-      <c r="E119" t="s">
-        <v>337</v>
-      </c>
-      <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>338</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" t="s">
-        <v>339</v>
-      </c>
-      <c r="E120" t="s">
-        <v>337</v>
-      </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>340</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" t="s">
-        <v>341</v>
-      </c>
-      <c r="E121" t="s">
-        <v>342</v>
-      </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>344</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" t="s">
-        <v>345</v>
-      </c>
-      <c r="E122" t="s">
-        <v>346</v>
-      </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" t="s">
-        <v>20</v>
-      </c>
-      <c r="I122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>348</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" t="s">
-        <v>349</v>
-      </c>
-      <c r="E123" t="s">
-        <v>350</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>352</v>
-      </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
@@ -5240,10 +5202,10 @@
         <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="E124" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
@@ -5254,13 +5216,10 @@
       <c r="H124" t="s">
         <v>20</v>
       </c>
-      <c r="I124" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -5269,10 +5228,10 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
@@ -5283,13 +5242,10 @@
       <c r="H125" t="s">
         <v>20</v>
       </c>
-      <c r="I125" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -5298,10 +5254,10 @@
         <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="E126" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -5313,9 +5269,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -5324,10 +5280,10 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="E127" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
@@ -5338,13 +5294,10 @@
       <c r="H127" t="s">
         <v>20</v>
       </c>
-      <c r="I127" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -5353,10 +5306,10 @@
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
@@ -5368,9 +5321,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -5379,7 +5332,7 @@
         <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -5394,9 +5347,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -5405,7 +5358,7 @@
         <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
@@ -5420,9 +5373,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>451</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -5431,10 +5384,10 @@
         <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="E131" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -5446,9 +5399,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -5457,13 +5410,13 @@
         <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>372</v>
+        <v>228</v>
       </c>
       <c r="E132" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -5471,13 +5424,10 @@
       <c r="H132" t="s">
         <v>20</v>
       </c>
-      <c r="I132" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>376</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -5486,10 +5436,10 @@
         <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -5500,13 +5450,10 @@
       <c r="H133" t="s">
         <v>20</v>
       </c>
-      <c r="I133" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5515,10 +5462,10 @@
         <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -5529,13 +5476,10 @@
       <c r="H134" t="s">
         <v>20</v>
       </c>
-      <c r="I134" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -5544,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -5559,9 +5503,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -5570,7 +5514,7 @@
         <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>385</v>
+        <v>234</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -5585,9 +5529,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -5596,7 +5540,7 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -5611,9 +5555,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -5622,7 +5566,7 @@
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
@@ -5637,9 +5581,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -5648,7 +5592,7 @@
         <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
@@ -5663,9 +5607,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>392</v>
+        <v>237</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -5674,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>393</v>
+        <v>238</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
@@ -5689,9 +5633,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -5700,7 +5644,7 @@
         <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
@@ -5715,9 +5659,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -5726,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -5741,9 +5685,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -5752,7 +5696,7 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -5767,9 +5711,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>400</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -5778,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
@@ -5795,7 +5739,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5804,7 +5748,7 @@
         <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -5821,7 +5765,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -5830,7 +5774,7 @@
         <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>405</v>
+        <v>242</v>
       </c>
       <c r="E146" t="s">
         <v>12</v>
@@ -5847,7 +5791,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -5856,7 +5800,7 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>244</v>
       </c>
       <c r="E147" t="s">
         <v>12</v>
@@ -5873,7 +5817,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>408</v>
+        <v>245</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -5882,7 +5826,7 @@
         <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>409</v>
+        <v>246</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
@@ -5899,7 +5843,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -5908,7 +5852,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -5925,7 +5869,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -5934,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>250</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -5951,7 +5895,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -5960,7 +5904,7 @@
         <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="E151" t="s">
         <v>12</v>
@@ -5977,16 +5921,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D152" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
@@ -5998,24 +5942,24 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>20</v>
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
@@ -6024,82 +5968,85 @@
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>421</v>
+        <v>402</v>
+      </c>
+      <c r="I153" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D154" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E154" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="I154" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D155" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E155" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="F155" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I155" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D156" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="E156" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -6108,169 +6055,163 @@
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I156" t="s">
-        <v>433</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="D157" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="E157" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="H157" t="s">
-        <v>219</v>
-      </c>
-      <c r="I157" t="s">
-        <v>436</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>437</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="D158" t="s">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="E158" t="s">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="H158" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="I158" t="s">
-        <v>440</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159" t="s">
-        <v>443</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>20</v>
-      </c>
-      <c r="I160" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>449</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D162" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
@@ -6279,24 +6220,24 @@
         <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D163" t="s">
-        <v>452</v>
+        <v>210</v>
       </c>
       <c r="E163" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
@@ -6305,53 +6246,56 @@
         <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="I163" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="D164" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="E164" t="s">
-        <v>455</v>
+        <v>255</v>
       </c>
       <c r="F164" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="I164" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>458</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D165" t="s">
-        <v>459</v>
+        <v>254</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
@@ -6360,24 +6304,27 @@
         <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="I165" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>460</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D166" t="s">
-        <v>461</v>
+        <v>257</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -6386,24 +6333,27 @@
         <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="I166" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D167" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -6412,24 +6362,27 @@
         <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="I167" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D168" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -6438,76 +6391,82 @@
         <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="I168" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="D169" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="G169" t="s">
         <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>262</v>
+      </c>
+      <c r="I169" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="D170" t="s">
-        <v>469</v>
+        <v>260</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G170" t="s">
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>470</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="D171" t="s">
-        <v>471</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -6516,24 +6475,27 @@
         <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>262</v>
+      </c>
+      <c r="I171" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
-        <v>473</v>
+        <v>267</v>
       </c>
       <c r="E172" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
@@ -6542,50 +6504,56 @@
         <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>262</v>
+      </c>
+      <c r="I172" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>471</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>472</v>
+      </c>
+      <c r="D173" t="s">
+        <v>473</v>
+      </c>
+      <c r="E173" t="s">
         <v>474</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="F173" t="s">
         <v>475</v>
       </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
       <c r="G173" t="s">
         <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>476</v>
+      </c>
+      <c r="I173" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>476</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="D174" t="s">
-        <v>477</v>
+        <v>272</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -6594,198 +6562,18 @@
         <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>478</v>
-      </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>479</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
-      <c r="H175" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>480</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>481</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
-      <c r="H176" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>482</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>483</v>
-      </c>
-      <c r="E177" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>19</v>
-      </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>484</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>485</v>
-      </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
-      <c r="H178" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>486</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>487</v>
-      </c>
-      <c r="E179" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="s">
-        <v>19</v>
-      </c>
-      <c r="H179" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>488</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>269</v>
-      </c>
-      <c r="D180" t="s">
-        <v>489</v>
-      </c>
-      <c r="E180" t="s">
-        <v>490</v>
-      </c>
-      <c r="F180" t="s">
-        <v>490</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
-      <c r="H180" t="s">
         <v>273</v>
       </c>
-      <c r="I180" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>492</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>493</v>
-      </c>
-      <c r="D181" t="s">
-        <v>494</v>
-      </c>
-      <c r="E181" t="s">
-        <v>495</v>
-      </c>
-      <c r="F181" t="s">
-        <v>496</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
-      <c r="H181" t="s">
-        <v>497</v>
-      </c>
-      <c r="I181" t="s">
-        <v>498</v>
+      <c r="I174" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{D2764BB3-FD8D-4A3A-AC43-6A2E8F6FA071}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I181">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>